--- a/data/case1/12/Q2_14.xlsx
+++ b/data/case1/12/Q2_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.29174180782811732</v>
+        <v>0.23336480490412725</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.052731926887698677</v>
+        <v>-0.022905092534752924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999741802128</v>
+        <v>-0.0039999999866324742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999530198096</v>
+        <v>-0.0079999999754836182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999719025894</v>
+        <v>-0.0029999999861587412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999679978231</v>
+        <v>-0.0019999999851023631</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999321629396</v>
+        <v>-0.0099949464808917199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999320457</v>
+        <v>-0.0099999999640472126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999682198677</v>
+        <v>-0.0019999999819271252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.001999999968973043</v>
+        <v>-0.001999999980537126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999646204145</v>
+        <v>-0.0029999999779386499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.024153265290397297</v>
+        <v>-0.003499999976356083</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999616767141</v>
+        <v>-0.0034999999749363297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999414024359</v>
+        <v>-0.0079999999636175545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999997261157603</v>
+        <v>-0.00099999998029431936</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.019954572767919121</v>
+        <v>-0.0019999999776141308</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.027295789465403786</v>
+        <v>-0.0019999999772455368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999616355808</v>
+        <v>-0.0039999999722892809</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.050944951145893924</v>
+        <v>-0.0039999999893565175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999783884022</v>
+        <v>-0.0039999999861741742</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999781654694</v>
+        <v>-0.0039999999854520851</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.00399999997799938</v>
+        <v>-0.040479060767984798</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999683052465</v>
+        <v>-0.0049999999834327014</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999989886625</v>
+        <v>-0.019999999945747859</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999897555298</v>
+        <v>-0.019999999945055968</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999644865767</v>
+        <v>-0.0024999999836268216</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999625774372</v>
+        <v>-0.0024999999833075215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999559585646</v>
+        <v>-0.0019999999830648818</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.006999999927463918</v>
+        <v>-0.0069999999699437154</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999688406191</v>
+        <v>-0.0030681049983933839</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999223337994</v>
+        <v>-0.0069999999686292114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999999086080038</v>
+        <v>-0.0099999999612236934</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999351998383</v>
+        <v>-0.0039999999756759053</v>
       </c>
     </row>
   </sheetData>
